--- a/www/ig/fhir/tddui/StructureDefinition-tddui-task-transport.xlsx
+++ b/www/ig/fhir/tddui/StructureDefinition-tddui-task-transport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:37:15+00:00</t>
+    <t>2026-02-06T14:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -499,7 +499,7 @@
     <t>Task.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -533,7 +533,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -570,7 +570,7 @@
     <t>Task.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Task)
+    <t xml:space="preserve">Reference(Task|4.0.1)
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
     <t>Task.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Device|4.0.1|Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>The type(s) of task performers allowed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.role, Request.performerType</t>
@@ -1084,7 +1084,7 @@
     <t>Task.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1151,7 +1151,7 @@
     <t>Task.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -1297,7 +1297,7 @@
     <t>Task.restriction.recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Group|Organization)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Group|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Comparison source", "Applicable consent", "Concomitent Medications", etc.</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-task-input-transport</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1400,7 +1400,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="typeMotorisation"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1435,7 +1435,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="adresseDepart"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1471,7 +1471,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="adresseDestination"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1503,7 +1503,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="budgetPrevisionnel"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1539,7 +1539,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="budgetReel"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1571,7 +1571,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="distance"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1607,7 +1607,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-transport-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-task-input-transport"/&gt;
     &lt;code value="dureeTheorique"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1981,15 +1981,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2000,27 +2000,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="143.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="47.7734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="94.296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8287,13 +8287,11 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y54" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8991,13 +8989,11 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y60" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y60" s="2"/>
+      <c r="Z60" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9693,13 +9689,11 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y66" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10397,13 +10391,11 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y72" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y72" s="2"/>
+      <c r="Z72" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -11101,13 +11093,11 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y78" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y78" s="2"/>
+      <c r="Z78" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11805,13 +11795,11 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y84" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y84" s="2"/>
+      <c r="Z84" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12509,13 +12497,11 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y90" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y90" s="2"/>
+      <c r="Z90" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13213,13 +13199,11 @@
         <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y96" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y96" s="2"/>
+      <c r="Z96" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>79</v>
